--- a/Beispiel Datenkatalog.xlsx
+++ b/Beispiel Datenkatalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihreimpulse.sharepoint.com/sites/SharedDrive/Freigegebene Dokumente/02 Projekte/Adam Riese/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{AB1AB765-0DC4-49CD-8C0E-2712514329B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA7CC565-0EB3-4B99-A8EC-DFDA33096574}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{AB1AB765-0DC4-49CD-8C0E-2712514329B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3054B452-B4C9-4870-9E37-AF53804AE812}"/>
   <bookViews>
     <workbookView xWindow="-21500" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{E1A9801A-08CA-452A-B6AD-8A03983C9535}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Provisionen</t>
   </si>
   <si>
-    <t>Provisionsähnliche Aufwendungen</t>
-  </si>
-  <si>
     <t>Provision</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>Summe aller provisionsähnlichen Aufwendungen (Boni, Wettbewerbe, Bürokosten, etc.)</t>
+  </si>
+  <si>
+    <t>Provisionsähnliche Aufwendung</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -546,21 +546,21 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -833,15 +833,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c73a7739-ffb5-4fef-b166-4f8774c35c3e">
@@ -852,14 +843,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83356465-7FDF-4BC6-AF03-EDAC88EBA6D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83356465-7FDF-4BC6-AF03-EDAC88EBA6D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c73a7739-ffb5-4fef-b166-4f8774c35c3e"/>
+    <ds:schemaRef ds:uri="9f6c7e6f-ceed-4cfd-a6d9-b79455156d09"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F766A29-D91C-463B-B4F3-23C57473397F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10D6A0BE-E586-4540-9363-BF044EC252FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c73a7739-ffb5-4fef-b166-4f8774c35c3e"/>
+    <ds:schemaRef ds:uri="9f6c7e6f-ceed-4cfd-a6d9-b79455156d09"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10D6A0BE-E586-4540-9363-BF044EC252FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F766A29-D91C-463B-B4F3-23C57473397F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>